--- a/resources/experiment 1/metrics/R2/upto time/Ictus (UPTO).xlsx
+++ b/resources/experiment 1/metrics/R2/upto time/Ictus (UPTO).xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6644204749112234</v>
+        <v>0.6644204749112232</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6644204749112234</v>
+        <v>0.6644204749112232</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6644204749112234</v>
+        <v>0.6644204749112232</v>
       </c>
     </row>
     <row r="3">
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9299787651933157</v>
+        <v>0.9155408654331411</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9300543993714576</v>
+        <v>0.9297152915404864</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9300543993714576</v>
+        <v>0.9237118633856677</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9390716589956006</v>
+        <v>0.9561894533603632</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9393080786881358</v>
+        <v>0.9226174920391154</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9393080786881358</v>
+        <v>0.956953168454318</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9395959915378678</v>
+        <v>0.5130151725227473</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9387578362569899</v>
+        <v>0.5136278684860438</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9387578362569899</v>
+        <v>0.4798668217832693</v>
       </c>
     </row>
   </sheetData>
